--- a/changes/m4-barrels.xlsx
+++ b/changes/m4-barrels.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5EE8F23D-9D2D-4ABD-ADEB-94EEB3BFDCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EAF93A-40F6-4DFD-A187-DB46DF15B2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="m4-barrels" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -166,7 +179,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1000,18 +1013,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="48.28515625" customWidth="1"/>
-    <col min="3" max="12" width="8.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
@@ -1159,7 +1168,7 @@
         <v>367</v>
       </c>
       <c r="M4">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N16" si="1">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*5+J4/200</f>
@@ -1268,7 +1277,7 @@
         <v>267</v>
       </c>
       <c r="M6">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
@@ -1324,7 +1333,7 @@
         <v>178</v>
       </c>
       <c r="M7">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="N7">
         <f t="shared" si="1"/>
@@ -1380,7 +1389,7 @@
         <v>49</v>
       </c>
       <c r="M8">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
@@ -1436,7 +1445,7 @@
         <v>33</v>
       </c>
       <c r="M9">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
@@ -1545,7 +1554,7 @@
         <v>-117</v>
       </c>
       <c r="M11">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="N11">
         <f t="shared" si="1"/>
@@ -1601,7 +1610,7 @@
         <v>-178</v>
       </c>
       <c r="M12">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="N12">
         <f t="shared" si="1"/>
@@ -1657,7 +1666,7 @@
         <v>-239</v>
       </c>
       <c r="M13">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="N13">
         <f t="shared" si="1"/>
@@ -1713,7 +1722,7 @@
         <v>-633</v>
       </c>
       <c r="M14">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="N14">
         <f t="shared" si="1"/>
@@ -1769,7 +1778,7 @@
         <v>6.3E-2</v>
       </c>
       <c r="M15">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="N15">
         <f t="shared" si="1"/>

--- a/changes/m4-barrels.xlsx
+++ b/changes/m4-barrels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EAF93A-40F6-4DFD-A187-DB46DF15B2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1F9087-C9C0-4B2D-BEA2-29A5BD746BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1017,10 +1017,13 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
@@ -1111,6 +1114,9 @@
       <c r="J3">
         <v>550</v>
       </c>
+      <c r="L3">
+        <v>-0.05</v>
+      </c>
       <c r="M3">
         <v>5000</v>
       </c>
@@ -1167,6 +1173,9 @@
       <c r="J4">
         <v>367</v>
       </c>
+      <c r="L4">
+        <v>-0.05</v>
+      </c>
       <c r="M4">
         <v>1600</v>
       </c>
@@ -1220,6 +1229,9 @@
       <c r="J5">
         <v>379</v>
       </c>
+      <c r="L5">
+        <v>-0.05</v>
+      </c>
       <c r="M5">
         <v>2000</v>
       </c>
@@ -1276,6 +1288,9 @@
       <c r="J6">
         <v>267</v>
       </c>
+      <c r="L6">
+        <v>-0.02</v>
+      </c>
       <c r="M6">
         <v>1800</v>
       </c>
@@ -1332,6 +1347,9 @@
       <c r="J7">
         <v>178</v>
       </c>
+      <c r="L7">
+        <v>-0.02</v>
+      </c>
       <c r="M7">
         <v>1100</v>
       </c>
@@ -1374,7 +1392,7 @@
         <v>0.72</v>
       </c>
       <c r="E8">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="F8">
         <v>-6</v>
@@ -1393,7 +1411,7 @@
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>-7.1049999999999978</v>
+        <v>-7.9049999999999985</v>
       </c>
       <c r="P8">
         <v>0.04</v>
@@ -1720,6 +1738,9 @@
       </c>
       <c r="J14">
         <v>-633</v>
+      </c>
+      <c r="L14">
+        <v>0.03</v>
       </c>
       <c r="M14">
         <v>1300</v>

--- a/changes/m4-barrels.xlsx
+++ b/changes/m4-barrels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1F9087-C9C0-4B2D-BEA2-29A5BD746BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C9A6A531-5309-4D2E-BB3B-5866F69004AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1017,7 +1017,7 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,20 +1109,20 @@
         <v>-0.3</v>
       </c>
       <c r="I3">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="J3">
         <v>550</v>
       </c>
       <c r="L3">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="M3">
         <v>5000</v>
       </c>
       <c r="N3">
         <f>C3-D3*20-E3*0.8-F3*0.6-H3*5+I3*10+J3/200</f>
-        <v>-8.6500000000000021</v>
+        <v>-9.1500000000000021</v>
       </c>
       <c r="P3">
         <v>0.08</v>
@@ -1168,20 +1168,20 @@
         <v>-0.2</v>
       </c>
       <c r="I4">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="J4">
         <v>367</v>
       </c>
       <c r="L4">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="M4">
         <v>1600</v>
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N16" si="1">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*5+J4/200</f>
-        <v>-8.2650000000000006</v>
+        <v>-8.4649999999999999</v>
       </c>
       <c r="P4">
         <v>0.08</v>
@@ -1224,20 +1224,20 @@
         <v>-0.22</v>
       </c>
       <c r="I5">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="J5">
         <v>379</v>
       </c>
       <c r="L5">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="M5">
         <v>2000</v>
       </c>
       <c r="N5">
         <f t="shared" si="1"/>
-        <v>-8.3049999999999979</v>
+        <v>-8.5049999999999972</v>
       </c>
       <c r="P5">
         <v>0.08</v>
@@ -1268,7 +1268,7 @@
         <v>25</v>
       </c>
       <c r="C6">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="D6">
         <v>0.74</v>
@@ -1283,20 +1283,20 @@
         <v>-0.1</v>
       </c>
       <c r="I6">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="J6">
         <v>267</v>
       </c>
       <c r="L6">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="M6">
         <v>1800</v>
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
-        <v>-7.7650000000000015</v>
+        <v>-6.9650000000000007</v>
       </c>
       <c r="P6">
         <v>0.06</v>
@@ -1345,17 +1345,17 @@
         <v>0.1</v>
       </c>
       <c r="J7">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="L7">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="M7">
         <v>1100</v>
       </c>
       <c r="N7">
         <f t="shared" si="1"/>
-        <v>-6.81</v>
+        <v>-6.9999999999999991</v>
       </c>
       <c r="P7">
         <v>0.06</v>
@@ -1404,14 +1404,14 @@
         <v>0.12</v>
       </c>
       <c r="J8">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="M8">
         <v>1200</v>
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>-7.9049999999999985</v>
+        <v>-7.6499999999999986</v>
       </c>
       <c r="P8">
         <v>0.04</v>
@@ -1460,14 +1460,14 @@
         <v>0.04</v>
       </c>
       <c r="J9">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="M9">
         <v>800</v>
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
-        <v>-7.0850000000000009</v>
+        <v>-7.2000000000000011</v>
       </c>
       <c r="P9">
         <v>0.04</v>
@@ -1516,14 +1516,14 @@
         <v>0.02</v>
       </c>
       <c r="J10">
-        <v>-22</v>
+        <v>-10</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
         <f t="shared" si="1"/>
-        <v>-7.21</v>
+        <v>-7.1499999999999995</v>
       </c>
       <c r="P10">
         <v>0.04</v>

--- a/changes/m4-barrels.xlsx
+++ b/changes/m4-barrels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C9A6A531-5309-4D2E-BB3B-5866F69004AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FF3DD1-467E-4723-8E21-BCC7A08A6FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>new</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>irl price</t>
+  </si>
+  <si>
+    <t>kac_ks1_5.56x45_348mm_heavy_dimpled_m_barrel</t>
+  </si>
+  <si>
+    <t>KAC KS-1 (L403A1) Heavy Dimpled 13.7" Mid Length Gastube 5.56x45</t>
   </si>
 </sst>
 </file>
@@ -316,7 +322,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -494,6 +500,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -657,8 +669,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1014,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1147,7 @@
         <v>-0.08</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S16" si="0">Q3*0.04+P3+R3</f>
+        <f t="shared" ref="S3:S17" si="0">Q3*0.04+P3+R3</f>
         <v>0.96000000000000008</v>
       </c>
       <c r="U3">
@@ -1180,7 +1193,7 @@
         <v>1600</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N16" si="1">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*5+J4/200</f>
+        <f t="shared" ref="N4:N17" si="1">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*5+J4/200</f>
         <v>-8.4649999999999999</v>
       </c>
       <c r="P4">
@@ -1197,7 +1210,7 @@
         <v>344.99</v>
       </c>
       <c r="V4">
-        <f t="shared" ref="V4:V16" si="2">U4*6</f>
+        <f t="shared" ref="V4:V17" si="2">U4*6</f>
         <v>2069.94</v>
       </c>
     </row>
@@ -1545,339 +1558,393 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0.54</v>
-      </c>
-      <c r="E11">
-        <v>-3</v>
-      </c>
-      <c r="F11">
-        <v>-3</v>
-      </c>
-      <c r="H11">
-        <v>0.15</v>
-      </c>
-      <c r="I11">
-        <v>-0.06</v>
-      </c>
-      <c r="J11">
-        <v>-117</v>
-      </c>
-      <c r="M11">
-        <v>1200</v>
-      </c>
-      <c r="N11">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-6</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-4</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-70</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1">
+        <v>-0.03</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2000</v>
+      </c>
+      <c r="N11" s="1">
         <f t="shared" si="1"/>
-        <v>-7.2350000000000003</v>
+        <v>-6.4499999999999993</v>
       </c>
       <c r="P11">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="Q11">
-        <v>12.5</v>
+        <v>13.7</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="S11">
         <f t="shared" si="0"/>
-        <v>0.54</v>
-      </c>
-      <c r="U11">
-        <v>338</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="2"/>
-        <v>2028</v>
+        <v>0.62799999999999989</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="E12">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F12">
         <v>-3</v>
       </c>
       <c r="H12">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="I12">
-        <v>-0.1</v>
+        <v>-0.06</v>
       </c>
       <c r="J12">
-        <v>-178</v>
+        <v>-117</v>
       </c>
       <c r="M12">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="N12">
         <f t="shared" si="1"/>
-        <v>-6.99</v>
+        <v>-7.2350000000000003</v>
       </c>
       <c r="P12">
         <v>0.04</v>
       </c>
       <c r="Q12">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="U12">
-        <v>155</v>
+        <v>338</v>
       </c>
       <c r="V12">
         <f t="shared" si="2"/>
-        <v>930</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="E13">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F13">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H13">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="I13">
-        <v>-0.14000000000000001</v>
+        <v>-0.1</v>
       </c>
       <c r="J13">
-        <v>-239</v>
+        <v>-178</v>
       </c>
       <c r="M13">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="N13">
         <f t="shared" si="1"/>
-        <v>-7.3450000000000015</v>
+        <v>-6.99</v>
       </c>
       <c r="P13">
         <v>0.04</v>
       </c>
       <c r="Q13">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <f>Q13*0.04+P13+R13</f>
-        <v>0.45999999999999996</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="U13">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="V13">
         <f t="shared" si="2"/>
-        <v>1794</v>
+        <v>930</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>0.33</v>
+        <v>0.46</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F14">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H14">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="I14">
-        <v>-0.2</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="J14">
-        <v>-633</v>
-      </c>
-      <c r="L14">
-        <v>0.03</v>
+        <v>-239</v>
       </c>
       <c r="M14">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="N14">
         <f t="shared" si="1"/>
-        <v>-8.1649999999999991</v>
+        <v>-7.3450000000000015</v>
       </c>
       <c r="P14">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="Q14">
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <f t="shared" si="0"/>
-        <v>0.32999999999999996</v>
+        <f>Q14*0.04+P14+R14</f>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="U14">
+        <v>299</v>
       </c>
       <c r="V14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H15">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I15">
-        <v>-0.26</v>
+        <v>-0.2</v>
       </c>
       <c r="J15">
-        <v>-685</v>
+        <v>-633</v>
       </c>
       <c r="L15">
-        <v>6.3E-2</v>
+        <v>0.03</v>
       </c>
       <c r="M15">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="N15">
         <f t="shared" si="1"/>
-        <v>-8.5250000000000004</v>
+        <v>-8.1649999999999991</v>
       </c>
       <c r="P15">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
         <f t="shared" si="0"/>
-        <v>0.22</v>
-      </c>
-      <c r="U15">
-        <v>149.94999999999999</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="V15">
         <f t="shared" si="2"/>
-        <v>899.69999999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>0.1</v>
+        <v>0.22</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="I16">
-        <v>-0.4</v>
+        <v>-0.26</v>
       </c>
       <c r="J16">
-        <v>-700</v>
+        <v>-685</v>
       </c>
       <c r="L16">
-        <v>0.125</v>
+        <v>6.3E-2</v>
       </c>
       <c r="M16">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="N16">
         <f t="shared" si="1"/>
-        <v>-33.5</v>
+        <v>-8.5250000000000004</v>
       </c>
       <c r="P16">
         <v>0.02</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
         <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+      <c r="U16">
+        <v>149.94999999999999</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="2"/>
+        <v>899.69999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
         <v>0.1</v>
       </c>
-      <c r="V16">
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>-0.4</v>
+      </c>
+      <c r="J17">
+        <v>-700</v>
+      </c>
+      <c r="L17">
+        <v>0.125</v>
+      </c>
+      <c r="M17">
+        <v>2000</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>-33.5</v>
+      </c>
+      <c r="P17">
+        <v>0.02</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="V17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>

--- a/changes/m4-barrels.xlsx
+++ b/changes/m4-barrels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FF3DD1-467E-4723-8E21-BCC7A08A6FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562BDAE8-F57E-4128-982F-73F38A732892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -322,7 +322,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,12 +500,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -671,7 +665,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1030,7 +1024,7 @@
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,51 +1033,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="P2" t="s">
@@ -1100,42 +1107,44 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>-15</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.96</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>-12</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>-12</v>
       </c>
-      <c r="H3">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
         <v>-0.3</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>0.4</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>550</v>
       </c>
-      <c r="L3">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
         <v>-0.06</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <v>5000</v>
       </c>
-      <c r="N3">
-        <f>C3-D3*20-E3*0.8-F3*0.6-H3*5+I3*10+J3/200</f>
-        <v>-9.1500000000000021</v>
+      <c r="N3" s="1">
+        <f>C3-D3*20-E3*0.8-F3*0.6-H3*5+I3*10+J3/300</f>
+        <v>-10.066666666666668</v>
       </c>
       <c r="P3">
         <v>0.08</v>
@@ -1159,42 +1168,44 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>-9</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.88</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>-10</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>-10</v>
       </c>
-      <c r="H4">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
         <v>-0.2</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>0.26</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>367</v>
       </c>
-      <c r="L4">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1">
         <v>-0.06</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <v>1600</v>
       </c>
-      <c r="N4">
-        <f t="shared" ref="N4:N17" si="1">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*5+J4/200</f>
-        <v>-8.4649999999999999</v>
+      <c r="N4" s="1">
+        <f t="shared" ref="N4:N17" si="1">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
+        <v>-7.7766666666666682</v>
       </c>
       <c r="P4">
         <v>0.08</v>
@@ -1215,42 +1226,44 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>-10</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.94</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>-11</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>-12</v>
       </c>
-      <c r="H5">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
         <v>-0.22</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>0.26</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>379</v>
       </c>
-      <c r="L5">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1">
         <v>-0.06</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>2000</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <f t="shared" si="1"/>
-        <v>-8.5049999999999972</v>
+        <v>-7.8366666666666642</v>
       </c>
       <c r="P5">
         <v>0.08</v>
@@ -1274,42 +1287,44 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>-6</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.74</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>-8</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>-8</v>
       </c>
-      <c r="H6">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
         <v>-0.1</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>0.16</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>267</v>
       </c>
-      <c r="L6">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1">
         <v>-0.03</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="1">
         <v>1800</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="1">
         <f t="shared" si="1"/>
-        <v>-6.9650000000000007</v>
+        <v>-6.6100000000000021</v>
       </c>
       <c r="P6">
         <v>0.06</v>
@@ -1333,42 +1348,44 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>-4</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.7</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>-7</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>-7</v>
       </c>
-      <c r="H7">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>0.1</v>
-      </c>
-      <c r="J7">
+      <c r="I7" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="J7" s="1">
         <v>140</v>
       </c>
-      <c r="L7">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1">
         <v>-0.03</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="1">
         <v>1100</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <f t="shared" si="1"/>
-        <v>-6.9999999999999991</v>
+        <v>-6.5333333333333323</v>
       </c>
       <c r="P7">
         <v>0.06</v>
@@ -1392,39 +1409,42 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8">
-        <v>-3</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D8" s="1">
         <v>0.72</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>-6</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>-6</v>
       </c>
-      <c r="H8">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
         <v>-0.05</v>
       </c>
-      <c r="I8">
-        <v>0.12</v>
-      </c>
-      <c r="J8">
+      <c r="I8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="1">
         <v>100</v>
       </c>
-      <c r="M8">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1">
         <v>1200</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <f t="shared" si="1"/>
-        <v>-7.6499999999999986</v>
+        <v>-6.4166666666666652</v>
       </c>
       <c r="P8">
         <v>0.04</v>
@@ -1448,39 +1468,42 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>-1</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>0.66</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>-5</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>-5</v>
       </c>
-      <c r="H9">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
         <v>0.05</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>0.04</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>10</v>
       </c>
-      <c r="M9">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1">
         <v>800</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="1">
         <f t="shared" si="1"/>
-        <v>-7.2000000000000011</v>
+        <v>-7.0166666666666675</v>
       </c>
       <c r="P9">
         <v>0.04</v>
@@ -1504,39 +1527,42 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>0.62</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>-4</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>-4</v>
       </c>
-      <c r="H10">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1">
         <v>0.08</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>0.02</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>-10</v>
       </c>
-      <c r="M10">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1">
         <v>0</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="1">
         <f t="shared" si="1"/>
-        <v>-7.1499999999999995</v>
+        <v>-7.0333333333333323</v>
       </c>
       <c r="P10">
         <v>0.04</v>
@@ -1557,14 +1583,14 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
         <v>0.64</v>
@@ -1594,7 +1620,7 @@
       </c>
       <c r="N11" s="1">
         <f t="shared" si="1"/>
-        <v>-6.4499999999999993</v>
+        <v>-5.333333333333333</v>
       </c>
       <c r="P11">
         <v>0.06</v>
@@ -1611,39 +1637,42 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>0.54</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>-3</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>-3</v>
       </c>
-      <c r="H12">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1">
         <v>0.15</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>-0.06</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>-117</v>
       </c>
-      <c r="M12">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1">
         <v>1200</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="1">
         <f t="shared" si="1"/>
-        <v>-7.2350000000000003</v>
+        <v>-7.34</v>
       </c>
       <c r="P12">
         <v>0.04</v>
@@ -1667,39 +1696,42 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>0.5</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>-2</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>-3</v>
       </c>
-      <c r="H13">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1">
         <v>0.2</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>-0.1</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>-178</v>
       </c>
-      <c r="M13">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1">
         <v>1100</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="1">
         <f t="shared" si="1"/>
-        <v>-6.99</v>
+        <v>-7.1933333333333342</v>
       </c>
       <c r="P13">
         <v>0.04</v>
@@ -1723,39 +1755,42 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>3</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>0.46</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>-1</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>-2</v>
       </c>
-      <c r="H14">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1">
         <v>0.25</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <v>-239</v>
       </c>
-      <c r="M14">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1">
         <v>1200</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="1">
         <f t="shared" si="1"/>
-        <v>-7.3450000000000015</v>
+        <v>-7.6466666666666683</v>
       </c>
       <c r="P14">
         <v>0.04</v>
@@ -1779,42 +1814,44 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>4</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>0.33</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>-1</v>
       </c>
-      <c r="H15">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1">
         <v>0.4</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>-0.2</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>-633</v>
       </c>
-      <c r="L15">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1">
         <v>0.03</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="1">
         <v>1300</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="1">
         <f t="shared" si="1"/>
-        <v>-8.1649999999999991</v>
+        <v>-8.11</v>
       </c>
       <c r="P15">
         <v>0.03</v>
@@ -1835,42 +1872,44 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>5</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>0.22</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="H16">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1">
         <v>0.6</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>-0.26</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>-685</v>
       </c>
-      <c r="L16">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1">
         <v>6.3E-2</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="1">
         <v>1400</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="1">
         <f t="shared" si="1"/>
-        <v>-8.5250000000000004</v>
+        <v>-8.6833333333333336</v>
       </c>
       <c r="P16">
         <v>0.02</v>
@@ -1894,42 +1933,44 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>6</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>0.1</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>5</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>5</v>
       </c>
-      <c r="H17">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1">
         <v>5</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>-0.4</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>-700</v>
       </c>
-      <c r="L17">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1">
         <v>0.125</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="1">
         <v>2000</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="1">
         <f t="shared" si="1"/>
-        <v>-33.5</v>
+        <v>-34.333333333333336</v>
       </c>
       <c r="P17">
         <v>0.02</v>

--- a/changes/m4-barrels.xlsx
+++ b/changes/m4-barrels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingl\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562BDAE8-F57E-4128-982F-73F38A732892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A18845-7F7B-4F9F-94A1-9F7E5862A771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>new</t>
   </si>
@@ -180,6 +180,30 @@
   </si>
   <si>
     <t>KAC KS-1 (L403A1) Heavy Dimpled 13.7" Mid Length Gastube 5.56x45</t>
+  </si>
+  <si>
+    <t>jp_enterprises_5b_gasblock</t>
+  </si>
+  <si>
+    <t>JP Enterprises 5B</t>
+  </si>
+  <si>
+    <t>daniel_defense_mk12_low_profile_gasblock</t>
+  </si>
+  <si>
+    <t>Daniel Defense MK12 Low Profile</t>
+  </si>
+  <si>
+    <t>windham_weaponry_railed_ar15_gasblock</t>
+  </si>
+  <si>
+    <t>Windham Weaponry Rail Gas Block</t>
+  </si>
+  <si>
+    <t>colt_m4fs_gasblock</t>
+  </si>
+  <si>
+    <t>Colt M4 Standard</t>
   </si>
 </sst>
 </file>
@@ -1021,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,7 +1228,7 @@
         <v>1600</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" ref="N4:N17" si="1">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
+        <f t="shared" ref="N4:N22" si="1">C4-D4*20-E4*0.8-F4*0.6-H4*5+I4*10+J4/300</f>
         <v>-7.7766666666666682</v>
       </c>
       <c r="P4">
@@ -1988,6 +2012,120 @@
       <c r="V17">
         <f t="shared" si="2"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N18" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>-1</v>
+      </c>
+      <c r="D19">
+        <v>0.08</v>
+      </c>
+      <c r="E19">
+        <v>-2</v>
+      </c>
+      <c r="F19">
+        <v>-2</v>
+      </c>
+      <c r="M19">
+        <v>750</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0.06</v>
+      </c>
+      <c r="E20">
+        <v>-1</v>
+      </c>
+      <c r="F20">
+        <v>-1</v>
+      </c>
+      <c r="M20">
+        <v>1200</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20000000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0.1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>-1</v>
+      </c>
+      <c r="M21">
+        <v>1000</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>0.11</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.79999999999999982</v>
       </c>
     </row>
   </sheetData>
